--- a/biology/Botanique/Eupteleaceae/Eupteleaceae.xlsx
+++ b/biology/Botanique/Eupteleaceae/Eupteleaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eupteleaceae ou Euptéléacées sont une famille de plantes dicotylédones comprenant 2 ou 3 espèces du genre Euptelea (en).
-Ce sont des arbres ou des buissons, à feuilles caduques, des zones tempérées d'Extrême-Orient. Ils ont des petites fleurs sans périanthe, un androcée constitué de 6-19 (-50), un gynécée constitué de (6-) 8-31 carpelles, caractéristiques qui font de cette famille une branche basale des Ranunculales[1].
+Ce sont des arbres ou des buissons, à feuilles caduques, des zones tempérées d'Extrême-Orient. Ils ont des petites fleurs sans périanthe, un androcée constitué de 6-19 (-50), un gynécée constitué de (6-) 8-31 carpelles, caractéristiques qui font de cette famille une branche basale des Ranunculales.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Euptelea qui vient du grec ευ / eu (bien, bon, véritable), et πτελέα / ptelea), (orme). En effet les botanistes allemands Philipp Franz von Siebold et Joseph Gerhard Zuccarini qui, en 1835, donnèrent le nom au genre, appelaient la plante "Vielmännige Schönulme" ("bel orme polygonal"), sans doute en raison de la ressemblance de ses feuilles avec celle de l'Orme.
 </t>
@@ -543,14 +557,85 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En classification classique de Cronquist (1981)[2], ces plantes faisaient partie des Hamamelidales. En classification phylogénétique APG III (2009)[3], elles sont assignées aux Ranunculales.
-Liste des genres
-Selon NCBI  (22 avr. 2010)[4], Angiosperm Phylogeny Website                        (21 mai 2010)[5] et DELTA Angio           (22 avr. 2010)[6] :
-genre Euptelea (en) Siebold &amp; Zucc.
-Liste des espèces
-Selon NCBI  (22 avr. 2010)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), ces plantes faisaient partie des Hamamelidales. En classification phylogénétique APG III (2009), elles sont assignées aux Ranunculales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eupteleaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupteleaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 avr. 2010), Angiosperm Phylogeny Website                        (21 mai 2010) et DELTA Angio           (22 avr. 2010) :
+genre Euptelea (en) Siebold &amp; Zucc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eupteleaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eupteleaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 avr. 2010) :
 genre Euptelea (en)
 Euptelea pleiosperma
 Euptelea polyandra
